--- a/flows/JPMB_fund_flow_data.xlsx
+++ b/flows/JPMB_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1529"/>
+  <dimension ref="A1:B1547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15725,6 +15725,186 @@
         <v>23.25</v>
       </c>
     </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1530" t="n">
+        <v>7.746</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1538" t="n">
+        <v>7.762</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1539" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1540" t="n">
+        <v>-3.888</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1542" t="n">
+        <v>3.904</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1544" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1547" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
